--- a/BackTest/2020-01-13 BackTest LBA.xlsx
+++ b/BackTest/2020-01-13 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-16215.0375</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-16193.9375</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="J3" t="n">
         <v>23.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-16193.9375</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J4" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>23.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-31112.0922</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J5" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>-31222.0922</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="J6" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>-34473.3308</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J7" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>-33985.57279999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>23.21</v>
       </c>
       <c r="J8" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="K8" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>-43251.60309999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J9" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>-42951.60309999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="J10" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>-42929.60309999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J11" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>-42951.60309999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J12" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>-41373.6753</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="J13" t="n">
         <v>23.4</v>
       </c>
-      <c r="K13" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>-37713.2787</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J14" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +972,23 @@
         <v>-38006.8463</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.58</v>
       </c>
       <c r="J15" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="K15" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +1013,23 @@
         <v>-37984.8463</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J16" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1054,23 @@
         <v>-37984.8463</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J17" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,26 +1095,23 @@
         <v>-27065.3892</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J18" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1192,26 +1136,23 @@
         <v>-43718.973</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>23.73</v>
       </c>
       <c r="J19" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="K19" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1236,26 +1177,23 @@
         <v>-43697.973</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="J20" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1280,26 +1218,23 @@
         <v>-43697.973</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.89</v>
       </c>
       <c r="J21" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="K21" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1324,24 +1259,23 @@
         <v>-43697.973</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>23.89</v>
+      </c>
+      <c r="J22" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1366,24 +1300,23 @@
         <v>-24567.8443</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>23.89</v>
+      </c>
+      <c r="J23" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1408,24 +1341,23 @@
         <v>-24567.8443</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>23.98</v>
+      </c>
+      <c r="J24" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1450,24 +1382,23 @@
         <v>-24567.8443</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>23.98</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1492,24 +1423,23 @@
         <v>-32061.8325</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>23.98</v>
+      </c>
+      <c r="J26" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1536,22 +1466,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1578,22 +1505,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1620,22 +1544,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1662,22 +1583,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1702,24 +1620,23 @@
         <v>-94285.5033</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>23.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1744,24 +1661,23 @@
         <v>-46573.5906</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>23.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1786,24 +1702,23 @@
         <v>-35263.15749999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1830,22 +1745,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1872,22 +1784,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1914,22 +1823,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1956,22 +1862,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1998,22 +1901,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2040,22 +1940,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2082,22 +1979,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2124,22 +2018,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2166,22 +2057,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2208,22 +2096,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2250,22 +2135,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2292,22 +2174,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2334,22 +2213,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2376,22 +2252,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2418,22 +2291,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2460,22 +2330,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2502,22 +2369,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2542,24 +2406,23 @@
         <v>95850.80045249499</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.067649572649573</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>1.012820512820513</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2584,24 +2447,15 @@
         <v>135338.341852495</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2626,24 +2480,15 @@
         <v>197626.588352495</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2668,24 +2513,15 @@
         <v>221955.865252495</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2710,24 +2546,15 @@
         <v>380110.051452495</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2752,24 +2579,15 @@
         <v>623279.456152495</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2794,26 +2612,15 @@
         <v>544921.784852495</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1.089017094017094</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1.012820512820513</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2838,18 +2645,15 @@
         <v>453305.230152495</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2874,18 +2678,15 @@
         <v>458610.3350524949</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2910,18 +2711,15 @@
         <v>373320.598752495</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2948,16 +2746,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2984,16 +2779,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3020,16 +2812,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3056,16 +2845,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3092,16 +2878,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3128,16 +2911,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3164,16 +2944,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3200,16 +2977,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3236,16 +3010,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3272,16 +3043,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3308,16 +3076,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3344,16 +3109,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3380,16 +3142,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3414,18 +3173,15 @@
         <v>132546.027152495</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3452,16 +3208,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3488,16 +3241,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3522,18 +3272,15 @@
         <v>127702.561052495</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3558,18 +3305,15 @@
         <v>128677.561052495</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3596,16 +3340,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3632,16 +3373,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3666,18 +3404,15 @@
         <v>36207.29555249498</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3702,18 +3437,15 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3740,16 +3472,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3774,18 +3503,15 @@
         <v>34775.27165249498</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3810,18 +3536,15 @@
         <v>34775.27165249498</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3846,18 +3569,15 @@
         <v>59190.27165249498</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3884,16 +3604,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3920,16 +3637,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3956,16 +3670,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3992,16 +3703,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4028,16 +3736,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4064,16 +3769,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4100,16 +3802,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4136,16 +3835,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4172,16 +3868,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4208,16 +3901,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4244,16 +3934,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4280,16 +3967,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4316,16 +4000,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4352,16 +4033,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4388,16 +4066,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4424,18 +4099,15 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LBA.xlsx
+++ b/BackTest/2020-01-13 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16215.0375</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-16193.9375</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>23.4</v>
@@ -521,7 +521,7 @@
         <v>-16193.9375</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>23.7</v>
@@ -562,7 +562,7 @@
         <v>-31112.0922</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>23.7</v>
@@ -603,7 +603,7 @@
         <v>-31222.0922</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>23.6</v>
@@ -644,7 +644,7 @@
         <v>-34473.3308</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>23.5</v>
@@ -685,7 +685,7 @@
         <v>-33985.57279999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>23.21</v>
@@ -726,7 +726,7 @@
         <v>-43251.60309999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>23.5</v>
@@ -767,7 +767,7 @@
         <v>-42951.60309999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>23.1</v>
@@ -808,7 +808,7 @@
         <v>-42929.60309999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>23.2</v>
@@ -849,7 +849,7 @@
         <v>-42951.60309999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>23.5</v>
@@ -890,7 +890,7 @@
         <v>-41373.6753</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>23.4</v>
@@ -931,7 +931,7 @@
         <v>-37713.2787</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>23.5</v>
@@ -972,7 +972,7 @@
         <v>-38006.8463</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>23.58</v>
@@ -1013,7 +1013,7 @@
         <v>-37984.8463</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>23.5</v>
@@ -1054,7 +1054,7 @@
         <v>-37984.8463</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>23.7</v>
@@ -1095,7 +1095,7 @@
         <v>-27065.3892</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>23.7</v>
@@ -1136,7 +1136,7 @@
         <v>-43718.973</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>23.73</v>
@@ -1177,7 +1177,7 @@
         <v>-43697.973</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>23.5</v>
@@ -1218,7 +1218,7 @@
         <v>-43697.973</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>23.89</v>
@@ -1259,7 +1259,7 @@
         <v>-43697.973</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>23.89</v>
@@ -1300,7 +1300,7 @@
         <v>-24567.8443</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>23.89</v>
@@ -1341,7 +1341,7 @@
         <v>-24567.8443</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>23.98</v>
@@ -1382,7 +1382,7 @@
         <v>-24567.8443</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>23.98</v>
@@ -1423,7 +1423,7 @@
         <v>-32061.8325</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>23.98</v>
@@ -1464,9 +1464,11 @@
         <v>-28759.4684</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23.89</v>
+      </c>
       <c r="J27" t="n">
         <v>23.4</v>
       </c>
@@ -1503,9 +1505,11 @@
         <v>-29360.6894</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24.19</v>
+      </c>
       <c r="J28" t="n">
         <v>23.4</v>
       </c>
@@ -1542,9 +1546,11 @@
         <v>-29793.4673</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J29" t="n">
         <v>23.4</v>
       </c>
@@ -1581,9 +1587,11 @@
         <v>-36664.4664</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>23.89</v>
+      </c>
       <c r="J30" t="n">
         <v>23.4</v>
       </c>
@@ -1620,7 +1628,7 @@
         <v>-94285.5033</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>23.8</v>
@@ -1661,7 +1669,7 @@
         <v>-46573.5906</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>23.7</v>
@@ -1702,7 +1710,7 @@
         <v>-35263.15749999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>24</v>
@@ -1743,9 +1751,11 @@
         <v>-63458.6462</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>24.35</v>
+      </c>
       <c r="J34" t="n">
         <v>23.4</v>
       </c>
@@ -1782,9 +1792,11 @@
         <v>-65947.8294</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>24.26</v>
+      </c>
       <c r="J35" t="n">
         <v>23.4</v>
       </c>
@@ -1821,9 +1833,11 @@
         <v>-68840.9654</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24.2</v>
+      </c>
       <c r="J36" t="n">
         <v>23.4</v>
       </c>
@@ -1860,9 +1874,11 @@
         <v>-68840.9654</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J37" t="n">
         <v>23.4</v>
       </c>
@@ -1899,9 +1915,11 @@
         <v>-97972.97930000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J38" t="n">
         <v>23.4</v>
       </c>
@@ -1938,9 +1956,11 @@
         <v>-97951.97930000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J39" t="n">
         <v>23.4</v>
       </c>
@@ -1977,9 +1997,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>24</v>
+      </c>
       <c r="J40" t="n">
         <v>23.4</v>
       </c>
@@ -2016,9 +2038,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>23.8</v>
+      </c>
       <c r="J41" t="n">
         <v>23.4</v>
       </c>
@@ -2055,9 +2079,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23.8</v>
+      </c>
       <c r="J42" t="n">
         <v>23.4</v>
       </c>
@@ -2094,9 +2120,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23.8</v>
+      </c>
       <c r="J43" t="n">
         <v>23.4</v>
       </c>
@@ -2133,9 +2161,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>23.8</v>
+      </c>
       <c r="J44" t="n">
         <v>23.4</v>
       </c>
@@ -2172,9 +2202,11 @@
         <v>-56996.93000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>23.8</v>
+      </c>
       <c r="J45" t="n">
         <v>23.4</v>
       </c>
@@ -2211,9 +2243,11 @@
         <v>-66556.04800000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
       <c r="J46" t="n">
         <v>23.4</v>
       </c>
@@ -2250,9 +2284,11 @@
         <v>-35526.13570000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J47" t="n">
         <v>23.4</v>
       </c>
@@ -2289,9 +2325,11 @@
         <v>10858.71509999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24.55</v>
+      </c>
       <c r="J48" t="n">
         <v>23.4</v>
       </c>
@@ -2406,7 +2444,7 @@
         <v>95850.80045249499</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
@@ -2414,15 +2452,13 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.067649572649573</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.012820512820513</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2447,11 +2483,17 @@
         <v>135338.341852495</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2480,11 +2522,17 @@
         <v>197626.588352495</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2561,17 @@
         <v>221955.865252495</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2546,11 +2600,17 @@
         <v>380110.051452495</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2579,11 +2639,17 @@
         <v>623279.456152495</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2612,15 +2678,23 @@
         <v>544921.784852495</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>1.089017094017094</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.012820512820513</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2645,7 +2719,7 @@
         <v>453305.230152495</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2678,7 +2752,7 @@
         <v>458610.3350524949</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2711,7 +2785,7 @@
         <v>373320.598752495</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2744,7 +2818,7 @@
         <v>190806.452352495</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2777,7 +2851,7 @@
         <v>191660.150352495</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2810,7 +2884,7 @@
         <v>191660.150352495</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2843,7 +2917,7 @@
         <v>204681.759652495</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2876,7 +2950,7 @@
         <v>204681.759652495</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2909,7 +2983,7 @@
         <v>206165.616852495</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2942,7 +3016,7 @@
         <v>206010.608352495</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2975,7 +3049,7 @@
         <v>206073.608352495</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3008,7 +3082,7 @@
         <v>159756.885952495</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3041,7 +3115,7 @@
         <v>146970.797652495</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3173,7 +3247,7 @@
         <v>132546.027152495</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3239,7 +3313,7 @@
         <v>132546.027152495</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3272,7 +3346,7 @@
         <v>127702.561052495</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3305,7 +3379,7 @@
         <v>128677.561052495</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3404,7 +3478,7 @@
         <v>36207.29555249498</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3437,7 +3511,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3503,7 +3577,7 @@
         <v>34775.27165249498</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3536,7 +3610,7 @@
         <v>34775.27165249498</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3569,7 +3643,7 @@
         <v>59190.27165249498</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3734,7 +3808,7 @@
         <v>186266.351552495</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3767,7 +3841,7 @@
         <v>186216.351552495</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3800,7 +3874,7 @@
         <v>190230.7197533318</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3833,7 +3907,7 @@
         <v>135575.4457533318</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3866,7 +3940,7 @@
         <v>163727.7334533318</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3899,7 +3973,7 @@
         <v>149883.4784533318</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3932,7 +4006,7 @@
         <v>149883.4784533318</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3965,7 +4039,7 @@
         <v>149883.4784533318</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3998,7 +4072,7 @@
         <v>98869.99975333179</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4031,7 +4105,7 @@
         <v>98869.99975333179</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4064,7 +4138,7 @@
         <v>98047.75095333179</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4108,6 +4182,6 @@
       <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LBA.xlsx
+++ b/BackTest/2020-01-13 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16215.0375</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -521,11 +521,9 @@
         <v>-16193.9375</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>23.4</v>
       </c>
@@ -562,11 +560,9 @@
         <v>-31112.0922</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>23.4</v>
       </c>
@@ -603,11 +599,9 @@
         <v>-31222.0922</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>23.4</v>
       </c>
@@ -644,11 +638,9 @@
         <v>-34473.3308</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>23.4</v>
       </c>
@@ -972,11 +964,9 @@
         <v>-38006.8463</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>23.4</v>
       </c>
@@ -1054,11 +1044,9 @@
         <v>-37984.8463</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>23.4</v>
       </c>
@@ -1095,11 +1083,9 @@
         <v>-27065.3892</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>23.4</v>
       </c>
@@ -1136,11 +1122,9 @@
         <v>-43718.973</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>23.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>23.4</v>
       </c>
@@ -1177,11 +1161,9 @@
         <v>-43697.973</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>23.4</v>
       </c>
@@ -1218,11 +1200,9 @@
         <v>-43697.973</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>23.4</v>
       </c>
@@ -1259,11 +1239,9 @@
         <v>-43697.973</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>23.4</v>
       </c>
@@ -1300,11 +1278,9 @@
         <v>-24567.8443</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>23.4</v>
       </c>
@@ -1341,11 +1317,9 @@
         <v>-24567.8443</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>23.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>23.4</v>
       </c>
@@ -1382,21 +1356,19 @@
         <v>-24567.8443</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>23.98</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>23.4</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>1.019786324786325</v>
       </c>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1423,19 +1395,11 @@
         <v>-32061.8325</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="J26" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1464,19 +1428,11 @@
         <v>-28759.4684</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="J27" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1505,19 +1461,11 @@
         <v>-29360.6894</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="J28" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1546,19 +1494,11 @@
         <v>-29793.4673</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1587,19 +1527,11 @@
         <v>-36664.4664</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="J30" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1628,19 +1560,11 @@
         <v>-94285.5033</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1669,19 +1593,11 @@
         <v>-46573.5906</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1710,19 +1626,11 @@
         <v>-35263.15749999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24</v>
-      </c>
-      <c r="J33" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1751,19 +1659,11 @@
         <v>-63458.6462</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="J34" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1792,19 +1692,11 @@
         <v>-65947.8294</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>24.26</v>
-      </c>
-      <c r="J35" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1833,19 +1725,11 @@
         <v>-68840.9654</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1874,19 +1758,11 @@
         <v>-68840.9654</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1791,11 @@
         <v>-97972.97930000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1824,11 @@
         <v>-97951.97930000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1997,19 +1857,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>24</v>
-      </c>
-      <c r="J40" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2038,19 +1890,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2079,19 +1923,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2120,19 +1956,11 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2167,13 +1995,9 @@
         <v>23.8</v>
       </c>
       <c r="J44" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>23.8</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2208,11 +2032,11 @@
         <v>23.8</v>
       </c>
       <c r="J45" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2249,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="J46" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2284,13 +2108,11 @@
         <v>-35526.13570000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2325,13 +2147,11 @@
         <v>10858.71509999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>24.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2370,7 +2190,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2409,7 +2229,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2448,7 +2268,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2487,7 +2307,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2526,7 +2346,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2565,7 +2385,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2604,7 +2424,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2643,7 +2463,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2678,23 +2498,21 @@
         <v>544921.784852495</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.089017094017094</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.012820512820513</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2722,8 +2540,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2752,11 +2576,17 @@
         <v>458610.3350524949</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2785,11 +2615,17 @@
         <v>373320.598752495</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2818,11 +2654,17 @@
         <v>190806.452352495</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2851,11 +2693,17 @@
         <v>191660.150352495</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2884,11 +2732,17 @@
         <v>191660.150352495</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2917,11 +2771,17 @@
         <v>204681.759652495</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2950,11 +2810,17 @@
         <v>204681.759652495</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2983,11 +2849,17 @@
         <v>206165.616852495</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3016,11 +2888,17 @@
         <v>206010.608352495</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3049,11 +2927,17 @@
         <v>206073.608352495</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3082,11 +2966,17 @@
         <v>159756.885952495</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3115,11 +3005,17 @@
         <v>146970.797652495</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3151,8 +3047,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3184,8 +3086,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3217,8 +3125,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3250,8 +3164,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3283,8 +3203,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3313,11 +3239,17 @@
         <v>132546.027152495</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3346,11 +3278,17 @@
         <v>127702.561052495</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3382,8 +3320,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3412,13 +3356,19 @@
         <v>121618.443052495</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0.9992016806722689</v>
       </c>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -3445,7 +3395,7 @@
         <v>121618.443052495</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3478,7 +3428,7 @@
         <v>36207.29555249498</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3511,7 +3461,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3544,7 +3494,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3808,7 +3758,7 @@
         <v>186266.351552495</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3841,7 +3791,7 @@
         <v>186216.351552495</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3874,7 +3824,7 @@
         <v>190230.7197533318</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3907,7 +3857,7 @@
         <v>135575.4457533318</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3940,7 +3890,7 @@
         <v>163727.7334533318</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3973,7 +3923,7 @@
         <v>149883.4784533318</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4006,7 +3956,7 @@
         <v>149883.4784533318</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4039,7 +3989,7 @@
         <v>149883.4784533318</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4072,7 +4022,7 @@
         <v>98869.99975333179</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4105,7 +4055,7 @@
         <v>98869.99975333179</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4138,7 +4088,7 @@
         <v>98047.75095333179</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4182,6 +4132,6 @@
       <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LBA.xlsx
+++ b/BackTest/2020-01-13 BackTest LBA.xlsx
@@ -451,7 +451,7 @@
         <v>-16215.0375</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -521,9 +521,11 @@
         <v>-16193.9375</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J4" t="n">
         <v>23.4</v>
       </c>
@@ -560,9 +562,11 @@
         <v>-31112.0922</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J5" t="n">
         <v>23.4</v>
       </c>
@@ -599,9 +603,11 @@
         <v>-31222.0922</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J6" t="n">
         <v>23.4</v>
       </c>
@@ -638,9 +644,11 @@
         <v>-34473.3308</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J7" t="n">
         <v>23.4</v>
       </c>
@@ -964,9 +972,11 @@
         <v>-38006.8463</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23.58</v>
+      </c>
       <c r="J15" t="n">
         <v>23.4</v>
       </c>
@@ -1044,9 +1054,11 @@
         <v>-37984.8463</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J17" t="n">
         <v>23.4</v>
       </c>
@@ -1083,9 +1095,11 @@
         <v>-27065.3892</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J18" t="n">
         <v>23.4</v>
       </c>
@@ -1122,9 +1136,11 @@
         <v>-43718.973</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>23.73</v>
+      </c>
       <c r="J19" t="n">
         <v>23.4</v>
       </c>
@@ -1161,9 +1177,11 @@
         <v>-43697.973</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J20" t="n">
         <v>23.4</v>
       </c>
@@ -1200,9 +1218,11 @@
         <v>-43697.973</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>23.89</v>
+      </c>
       <c r="J21" t="n">
         <v>23.4</v>
       </c>
@@ -1356,7 +1376,7 @@
         <v>-24567.8443</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
@@ -1364,11 +1384,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.019786324786325</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1395,11 +1415,17 @@
         <v>-32061.8325</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1428,11 +1454,17 @@
         <v>-28759.4684</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1461,11 +1493,17 @@
         <v>-29360.6894</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1494,11 +1532,17 @@
         <v>-29793.4673</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1527,11 +1571,17 @@
         <v>-36664.4664</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1563,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1596,8 +1652,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1629,8 +1691,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1659,11 +1727,17 @@
         <v>-63458.6462</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1695,8 +1769,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1728,8 +1808,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1761,8 +1847,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1794,8 +1886,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1827,8 +1925,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1860,8 +1964,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1893,8 +2003,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1926,8 +2042,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1959,8 +2081,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1989,15 +2117,17 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>23.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2026,17 +2156,15 @@
         <v>-56996.93000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>23.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2067,13 +2195,11 @@
         <v>-66556.04800000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2112,7 +2238,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2151,7 +2277,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2190,7 +2316,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2229,7 +2355,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2268,7 +2394,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2307,7 +2433,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2346,7 +2472,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2385,7 +2511,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2424,7 +2550,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2459,21 +2585,23 @@
         <v>623279.456152495</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>1.089444444444445</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.012820512820513</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2498,17 +2626,11 @@
         <v>544921.784852495</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2537,17 +2659,11 @@
         <v>453305.230152495</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2576,17 +2692,11 @@
         <v>458610.3350524949</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2618,14 +2728,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2657,14 +2761,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2696,14 +2794,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2735,14 +2827,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2774,14 +2860,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2813,14 +2893,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2852,14 +2926,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2891,14 +2959,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2930,14 +2992,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2969,14 +3025,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3008,14 +3058,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3047,14 +3091,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3086,14 +3124,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3125,14 +3157,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3164,14 +3190,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3203,14 +3223,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3242,14 +3256,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3281,14 +3289,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3320,14 +3322,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3356,19 +3352,13 @@
         <v>121618.443052495</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.9992016806722689</v>
+        <v>1</v>
       </c>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -3395,7 +3385,7 @@
         <v>121618.443052495</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3428,7 +3418,7 @@
         <v>36207.29555249498</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3461,7 +3451,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3494,7 +3484,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest LBA.xlsx
+++ b/BackTest/2020-01-13 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>800</v>
       </c>
       <c r="G2" t="n">
-        <v>-16215.0375</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>21.1</v>
       </c>
       <c r="G3" t="n">
-        <v>-16193.9375</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>23.4</v>
       </c>
       <c r="I3" t="n">
         <v>23.4</v>
       </c>
-      <c r="J3" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>1392</v>
       </c>
       <c r="G4" t="n">
-        <v>-16193.9375</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I4" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>23.4</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>14918.1547</v>
       </c>
       <c r="G5" t="n">
-        <v>-31112.0922</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I5" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>110</v>
       </c>
       <c r="G6" t="n">
-        <v>-31222.0922</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>23.6</v>
       </c>
       <c r="I6" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>3251.2386</v>
       </c>
       <c r="G7" t="n">
-        <v>-34473.3308</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="I7" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>487.758</v>
       </c>
       <c r="G8" t="n">
-        <v>-33985.57279999999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>23.21</v>
       </c>
       <c r="I8" t="n">
-        <v>23.21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>9266.0303</v>
       </c>
       <c r="G9" t="n">
-        <v>-43251.60309999999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="I9" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +735,23 @@
         <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>-42951.60309999999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>23.1</v>
       </c>
       <c r="I10" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +773,23 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>-42929.60309999999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>23.2</v>
       </c>
       <c r="I11" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +811,23 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>-42951.60309999999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="I12" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +849,23 @@
         <v>1577.9278</v>
       </c>
       <c r="G13" t="n">
-        <v>-41373.6753</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>23.4</v>
       </c>
       <c r="I13" t="n">
         <v>23.4</v>
       </c>
-      <c r="J13" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +887,23 @@
         <v>3660.3966</v>
       </c>
       <c r="G14" t="n">
-        <v>-37713.2787</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="I14" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +925,23 @@
         <v>293.5676</v>
       </c>
       <c r="G15" t="n">
-        <v>-38006.8463</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>23.58</v>
       </c>
       <c r="I15" t="n">
-        <v>23.58</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +963,23 @@
         <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>-37984.8463</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="I16" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +1001,23 @@
         <v>4402.4477</v>
       </c>
       <c r="G17" t="n">
-        <v>-37984.8463</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I17" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +1039,23 @@
         <v>10919.4571</v>
       </c>
       <c r="G18" t="n">
-        <v>-27065.3892</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>23.7</v>
       </c>
       <c r="I18" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,26 +1077,23 @@
         <v>16653.5838</v>
       </c>
       <c r="G19" t="n">
-        <v>-43718.973</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>23.73</v>
       </c>
       <c r="I19" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="J19" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,26 +1115,23 @@
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>-43697.973</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="I20" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1215,26 +1153,23 @@
         <v>312.9008</v>
       </c>
       <c r="G21" t="n">
-        <v>-43697.973</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>23.89</v>
       </c>
       <c r="I21" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="J21" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>23.4</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1256,24 +1191,21 @@
         <v>5911.8601</v>
       </c>
       <c r="G22" t="n">
-        <v>-43697.973</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1295,24 +1227,23 @@
         <v>19130.1287</v>
       </c>
       <c r="G23" t="n">
-        <v>-24567.8443</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>23.89</v>
+      </c>
+      <c r="I23" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1334,24 +1265,21 @@
         <v>59842.9394</v>
       </c>
       <c r="G24" t="n">
-        <v>-24567.8443</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1373,24 +1301,23 @@
         <v>1665.3307</v>
       </c>
       <c r="G25" t="n">
-        <v>-24567.8443</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>23.98</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1412,24 +1339,21 @@
         <v>7493.9882</v>
       </c>
       <c r="G26" t="n">
-        <v>-32061.8325</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1451,24 +1375,23 @@
         <v>3302.3641</v>
       </c>
       <c r="G27" t="n">
-        <v>-28759.4684</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>23.89</v>
+      </c>
+      <c r="I27" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1490,24 +1413,21 @@
         <v>601.221</v>
       </c>
       <c r="G28" t="n">
-        <v>-29360.6894</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1529,24 +1449,23 @@
         <v>432.7779</v>
       </c>
       <c r="G29" t="n">
-        <v>-29793.4673</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>23.9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1568,24 +1487,21 @@
         <v>6870.9991</v>
       </c>
       <c r="G30" t="n">
-        <v>-36664.4664</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1607,24 +1523,23 @@
         <v>57621.0369</v>
       </c>
       <c r="G31" t="n">
-        <v>-94285.5033</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>23.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1646,24 +1561,23 @@
         <v>47711.9127</v>
       </c>
       <c r="G32" t="n">
-        <v>-46573.5906</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>23.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1685,24 +1599,21 @@
         <v>11310.4331</v>
       </c>
       <c r="G33" t="n">
-        <v>-35263.15749999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1724,24 +1635,21 @@
         <v>28195.4887</v>
       </c>
       <c r="G34" t="n">
-        <v>-63458.6462</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1763,24 +1671,21 @@
         <v>2489.1832</v>
       </c>
       <c r="G35" t="n">
-        <v>-65947.8294</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1802,24 +1707,21 @@
         <v>2893.136</v>
       </c>
       <c r="G36" t="n">
-        <v>-68840.9654</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1841,24 +1743,21 @@
         <v>1430.6495</v>
       </c>
       <c r="G37" t="n">
-        <v>-68840.9654</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1880,24 +1779,21 @@
         <v>29132.0139</v>
       </c>
       <c r="G38" t="n">
-        <v>-97972.97930000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1919,24 +1815,21 @@
         <v>21</v>
       </c>
       <c r="G39" t="n">
-        <v>-97951.97930000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1958,24 +1851,21 @@
         <v>614.3459</v>
       </c>
       <c r="G40" t="n">
-        <v>-98566.32520000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1997,24 +1887,21 @@
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>-98566.32520000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2036,24 +1923,21 @@
         <v>200</v>
       </c>
       <c r="G42" t="n">
-        <v>-98566.32520000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2075,24 +1959,21 @@
         <v>23419.1328</v>
       </c>
       <c r="G43" t="n">
-        <v>-98566.32520000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2114,24 +1995,21 @@
         <v>7651.1863</v>
       </c>
       <c r="G44" t="n">
-        <v>-98566.32520000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2153,24 +2031,21 @@
         <v>41569.3952</v>
       </c>
       <c r="G45" t="n">
-        <v>-56996.93000000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2192,24 +2067,21 @@
         <v>9559.118</v>
       </c>
       <c r="G46" t="n">
-        <v>-66556.04800000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2231,24 +2103,21 @@
         <v>31029.9123</v>
       </c>
       <c r="G47" t="n">
-        <v>-35526.13570000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,24 +2139,21 @@
         <v>46384.8508</v>
       </c>
       <c r="G48" t="n">
-        <v>10858.71509999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2309,24 +2175,21 @@
         <v>46774.39405249501</v>
       </c>
       <c r="G49" t="n">
-        <v>57633.109152495</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2348,24 +2211,21 @@
         <v>3878.31</v>
       </c>
       <c r="G50" t="n">
-        <v>53754.799152495</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2387,24 +2247,21 @@
         <v>42096.0013</v>
       </c>
       <c r="G51" t="n">
-        <v>95850.80045249499</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2426,24 +2283,21 @@
         <v>39487.5414</v>
       </c>
       <c r="G52" t="n">
-        <v>135338.341852495</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2465,24 +2319,21 @@
         <v>62288.2465</v>
       </c>
       <c r="G53" t="n">
-        <v>197626.588352495</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2504,24 +2355,21 @@
         <v>24329.2769</v>
       </c>
       <c r="G54" t="n">
-        <v>221955.865252495</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2543,24 +2391,21 @@
         <v>158154.1862</v>
       </c>
       <c r="G55" t="n">
-        <v>380110.051452495</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2582,24 +2427,21 @@
         <v>243169.4047</v>
       </c>
       <c r="G56" t="n">
-        <v>623279.456152495</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K56" t="n">
+        <v>1.089444444444445</v>
+      </c>
       <c r="L56" t="n">
-        <v>1.089444444444445</v>
-      </c>
-      <c r="M56" t="n">
         <v>1.012820512820513</v>
       </c>
     </row>
@@ -2623,18 +2465,15 @@
         <v>78357.6713</v>
       </c>
       <c r="G57" t="n">
-        <v>544921.784852495</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2656,18 +2495,15 @@
         <v>91616.55469999999</v>
       </c>
       <c r="G58" t="n">
-        <v>453305.230152495</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2689,18 +2525,15 @@
         <v>5305.1049</v>
       </c>
       <c r="G59" t="n">
-        <v>458610.3350524949</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2722,18 +2555,15 @@
         <v>85289.7363</v>
       </c>
       <c r="G60" t="n">
-        <v>373320.598752495</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2755,18 +2585,15 @@
         <v>182514.1464</v>
       </c>
       <c r="G61" t="n">
-        <v>190806.452352495</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2788,18 +2615,15 @@
         <v>853.698</v>
       </c>
       <c r="G62" t="n">
-        <v>191660.150352495</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2821,18 +2645,15 @@
         <v>18802.6871</v>
       </c>
       <c r="G63" t="n">
-        <v>191660.150352495</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2854,18 +2675,15 @@
         <v>13021.6093</v>
       </c>
       <c r="G64" t="n">
-        <v>204681.759652495</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2887,18 +2705,15 @@
         <v>0.0001</v>
       </c>
       <c r="G65" t="n">
-        <v>204681.759652495</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2920,18 +2735,15 @@
         <v>1483.8572</v>
       </c>
       <c r="G66" t="n">
-        <v>206165.616852495</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2953,18 +2765,15 @@
         <v>155.0085</v>
       </c>
       <c r="G67" t="n">
-        <v>206010.608352495</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2986,18 +2795,15 @@
         <v>63</v>
       </c>
       <c r="G68" t="n">
-        <v>206073.608352495</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3019,18 +2825,15 @@
         <v>46316.7224</v>
       </c>
       <c r="G69" t="n">
-        <v>159756.885952495</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3052,18 +2855,15 @@
         <v>12786.0883</v>
       </c>
       <c r="G70" t="n">
-        <v>146970.797652495</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3085,18 +2885,15 @@
         <v>2623.5167</v>
       </c>
       <c r="G71" t="n">
-        <v>149594.314352495</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3118,18 +2915,15 @@
         <v>25869.2872</v>
       </c>
       <c r="G72" t="n">
-        <v>123725.027152495</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3151,18 +2945,15 @@
         <v>21</v>
       </c>
       <c r="G73" t="n">
-        <v>123746.027152495</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3184,18 +2975,15 @@
         <v>8800</v>
       </c>
       <c r="G74" t="n">
-        <v>132546.027152495</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3217,18 +3005,15 @@
         <v>443</v>
       </c>
       <c r="G75" t="n">
-        <v>132546.027152495</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3250,18 +3035,15 @@
         <v>76370.50539999999</v>
       </c>
       <c r="G76" t="n">
-        <v>132546.027152495</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3283,18 +3065,15 @@
         <v>4843.4661</v>
       </c>
       <c r="G77" t="n">
-        <v>127702.561052495</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3316,18 +3095,15 @@
         <v>975</v>
       </c>
       <c r="G78" t="n">
-        <v>128677.561052495</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3349,18 +3125,15 @@
         <v>7059.118</v>
       </c>
       <c r="G79" t="n">
-        <v>121618.443052495</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3382,18 +3155,15 @@
         <v>27051.6402</v>
       </c>
       <c r="G80" t="n">
-        <v>121618.443052495</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3415,18 +3185,15 @@
         <v>85411.14750000001</v>
       </c>
       <c r="G81" t="n">
-        <v>36207.29555249498</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3448,18 +3215,19 @@
         <v>2891.7616</v>
       </c>
       <c r="G82" t="n">
-        <v>39099.05715249498</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>23.8</v>
+      </c>
+      <c r="I82" t="n">
+        <v>23.8</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3481,18 +3249,21 @@
         <v>828.2328</v>
       </c>
       <c r="G83" t="n">
-        <v>39099.05715249498</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3514,18 +3285,23 @@
         <v>4323.7855</v>
       </c>
       <c r="G84" t="n">
-        <v>34775.27165249498</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>24.09</v>
+      </c>
+      <c r="I84" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3547,18 +3323,15 @@
         <v>13525.8201</v>
       </c>
       <c r="G85" t="n">
-        <v>34775.27165249498</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3580,18 +3353,15 @@
         <v>24415</v>
       </c>
       <c r="G86" t="n">
-        <v>59190.27165249498</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3613,18 +3383,15 @@
         <v>77.0877</v>
       </c>
       <c r="G87" t="n">
-        <v>59113.18395249498</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3646,18 +3413,15 @@
         <v>5000</v>
       </c>
       <c r="G88" t="n">
-        <v>64113.18395249498</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3679,18 +3443,15 @@
         <v>772.3848</v>
       </c>
       <c r="G89" t="n">
-        <v>63340.79915249498</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3712,18 +3473,15 @@
         <v>118544.9511</v>
       </c>
       <c r="G90" t="n">
-        <v>181885.750252495</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3745,18 +3503,15 @@
         <v>4380.6013</v>
       </c>
       <c r="G91" t="n">
-        <v>186266.351552495</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3778,18 +3533,15 @@
         <v>50</v>
       </c>
       <c r="G92" t="n">
-        <v>186216.351552495</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3811,18 +3563,15 @@
         <v>4014.36820083682</v>
       </c>
       <c r="G93" t="n">
-        <v>190230.7197533318</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3844,18 +3593,15 @@
         <v>54655.274</v>
       </c>
       <c r="G94" t="n">
-        <v>135575.4457533318</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3877,18 +3623,15 @@
         <v>28152.2877</v>
       </c>
       <c r="G95" t="n">
-        <v>163727.7334533318</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3910,18 +3653,15 @@
         <v>13844.255</v>
       </c>
       <c r="G96" t="n">
-        <v>149883.4784533318</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3943,18 +3683,15 @@
         <v>472.3531</v>
       </c>
       <c r="G97" t="n">
-        <v>149883.4784533318</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3976,18 +3713,15 @@
         <v>672.7043</v>
       </c>
       <c r="G98" t="n">
-        <v>149883.4784533318</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4009,18 +3743,15 @@
         <v>51013.4787</v>
       </c>
       <c r="G99" t="n">
-        <v>98869.99975333179</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4042,18 +3773,15 @@
         <v>56176.9889</v>
       </c>
       <c r="G100" t="n">
-        <v>98869.99975333179</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4075,18 +3803,15 @@
         <v>822.2488</v>
       </c>
       <c r="G101" t="n">
-        <v>98047.75095333179</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4108,18 +3833,15 @@
         <v>50104.8157</v>
       </c>
       <c r="G102" t="n">
-        <v>47942.93525333179</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
